--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_250.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,632 +488,650 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
-        </is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_215</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>[['G', 'A', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.2, 12.32)]</t>
+          <t>[['Bb', 'C', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:44.536000', '0:00:48.170000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:03.779614', '0:00:07.239387')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1098901098901099</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(70.519024, 75.720294)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:26.360000', '0:00:34.360000'), ('0:00:48', '0:00:52.200000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:23.140000', '0:00:30.460000'), ('0:00:13.420000', '0:00:19.500000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3052631578947368</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:35.197913', '0:00:46.610521')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1053571428571429</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.9, 20.52)]</t>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:06.357029', '0:00:23.632675')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03608669745270371</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4034482758620689</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.156734', '0:00:15.101043')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:53.520000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5), (15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:07.449092', '0:02:19.418979')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06706730769230769</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'E']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.421247, 8.319115)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5042016806722689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(56.76, 62.32)]</t>
+          <t>[['A', 'E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.0, 43.66)]</t>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:23.861000', '0:00:54.729000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(22.5, 27.52), (21.94, 25.36), (243.44, 246.98), (11.82, 16.4)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (9.78, 14.36), (44.0, 61.06), (1.54, 6.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1174603174603175</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.84, 21.61)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(75.44, 90.64)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_81</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Gb', 'E:dim7/b3', 'Db/5', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'B:dim7', 'F/5', 'D:7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.49263, 34.905963)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.67, 11.25)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_230</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1174089068825911</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'B', 'E:min'], ['B', 'E:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'E/3', 'A:min'], ['E/3', 'A:min', 'D:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.665782, 29.640294), (78.402199, 83.568639)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(56.229, 59.359), (65.401, 68.418)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.04, 18.72), (6.56, 12.6)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58), (282.12, 284.72)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(66.92, 68.18)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.78, 25.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
